--- a/Formularios/GerenciamentoDeCustos.xlsx
+++ b/Formularios/GerenciamentoDeCustos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Desktop\Github\Gerenciamento-de-projetos\Formularios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>Data de Inicio</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Dev DB</t>
-  </si>
-  <si>
-    <t>Empresa Terceirizada</t>
   </si>
   <si>
     <t>Local de Trabalho</t>
@@ -72,6 +69,18 @@
   </si>
   <si>
     <t>Gasto Mensal</t>
+  </si>
+  <si>
+    <t>Empresa Terceirizada (Serviço)</t>
+  </si>
+  <si>
+    <t>4PC</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
+    <t>Custo de aquisição</t>
   </si>
 </sst>
 </file>
@@ -98,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="36">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -122,15 +131,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -571,118 +571,160 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -797,7 +839,7 @@
                   <c:v>23400</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52000</c:v>
+                  <c:v>24000</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>50000</c:v>
@@ -815,11 +857,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="449801432"/>
-        <c:axId val="449800648"/>
+        <c:axId val="254786616"/>
+        <c:axId val="254791320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="449801432"/>
+        <c:axId val="254786616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +903,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449800648"/>
+        <c:crossAx val="254791320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -869,7 +911,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="449800648"/>
+        <c:axId val="254791320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -951,7 +993,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449801432"/>
+        <c:crossAx val="254786616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1879,18 +1921,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A10" sqref="A10"/>
+      <selection pane="topRight" sqref="A1:I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="1" max="1" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" customWidth="1"/>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1"/>
     <col min="5" max="5" width="17.42578125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
     <col min="7" max="7" width="14.28515625" customWidth="1"/>
@@ -1905,7 +1948,9 @@
       <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62"/>
+      <c r="D1" s="60" t="s">
+        <v>18</v>
+      </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
@@ -1913,41 +1958,41 @@
         <v>2</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H1" s="29"/>
+        <v>14</v>
+      </c>
+      <c r="H1" s="27"/>
       <c r="I1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="35">
+        <v>7</v>
+      </c>
+      <c r="B2" s="33">
         <v>44249</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="34">
         <v>45261</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="37" t="str">
+        <v>13</v>
+      </c>
+      <c r="E2" s="35" t="str">
         <f>DATEDIF(B2,C2,"ym")&amp;" Mesês,"&amp;DATEDIF(B2,C2,"y")&amp;" Anos."</f>
         <v>9 Mesês,2 Anos.</v>
       </c>
-      <c r="F2" s="28">
+      <c r="F2" s="26">
         <f>DATEDIF(B2,C2,"m")</f>
         <v>33</v>
       </c>
-      <c r="G2" s="27">
+      <c r="G2" s="25">
         <v>900</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="48">
+        <v>13</v>
+      </c>
+      <c r="I2" s="46">
         <f>G2*F2</f>
         <v>29700</v>
       </c>
@@ -1964,19 +2009,19 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="28">
         <v>44287</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="59">
         <v>44440</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="43" t="str">
+      <c r="D4" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="41" t="str">
         <f>DATEDIF(B4,C4,"ym")&amp;" Mesês,"&amp;DATEDIF(B4,C4,"y")&amp;" Anos."</f>
         <v>5 Mesês,0 Anos.</v>
       </c>
@@ -1987,28 +2032,28 @@
       <c r="G4" s="15">
         <v>6000</v>
       </c>
-      <c r="H4" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="49">
+      <c r="H4" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="47">
         <f>G4*F4</f>
         <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="33" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8">
         <v>44287</v>
       </c>
-      <c r="C5" s="58">
+      <c r="C5" s="56">
         <v>44348</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="44" t="str">
+      <c r="D5" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="42" t="str">
         <f>DATEDIF(B5,C5,"ym")&amp;" Mesês,"&amp;DATEDIF(B5,C5,"y")&amp;" Anos."</f>
         <v>2 Mesês,0 Anos.</v>
       </c>
@@ -2019,28 +2064,28 @@
       <c r="G5" s="16">
         <v>4000</v>
       </c>
-      <c r="H5" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="50">
+      <c r="H5" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I5" s="48">
         <f t="shared" ref="I5:I11" si="0">G5*F5</f>
         <v>8000</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="29">
         <v>44287</v>
       </c>
-      <c r="C6" s="59">
+      <c r="C6" s="57">
         <v>44440</v>
       </c>
-      <c r="D6" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="45" t="str">
+      <c r="D6" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="43" t="str">
         <f>DATEDIF(B6,C6,"ym")&amp;" Mesês,"&amp;DATEDIF(B6,C6,"y")&amp;" Anos."</f>
         <v>5 Mesês,0 Anos.</v>
       </c>
@@ -2051,10 +2096,10 @@
       <c r="G6" s="19">
         <v>4000</v>
       </c>
-      <c r="H6" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="51">
+      <c r="H6" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="49">
         <f t="shared" si="0"/>
         <v>20000</v>
       </c>
@@ -2072,18 +2117,18 @@
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="7">
         <v>44474</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="59">
         <v>44886</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="46" t="str">
+      <c r="D8" s="58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="44" t="str">
         <f>DATEDIF(B8,C8,"ym")&amp;" Mesês,"&amp;DATEDIF(B8,C8,"y")&amp;" Anos."</f>
         <v>1 Mesês,1 Anos.</v>
       </c>
@@ -2094,28 +2139,28 @@
       <c r="G8" s="15">
         <v>4000</v>
       </c>
-      <c r="H8" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="49">
+      <c r="H8" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="47">
         <f t="shared" si="0"/>
         <v>52000</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="8">
         <v>44474</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="56">
         <v>44886</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="44" t="str">
+      <c r="D9" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="42" t="str">
         <f>DATEDIF(B9,C9,"ym")&amp;" Mesês,"&amp;DATEDIF(B9,C9,"y")&amp;" Anos."</f>
         <v>1 Mesês,1 Anos.</v>
       </c>
@@ -2126,28 +2171,28 @@
       <c r="G9" s="16">
         <v>1800</v>
       </c>
-      <c r="H9" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="50">
+      <c r="H9" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="48">
         <f t="shared" si="0"/>
         <v>23400</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="8">
         <v>44474</v>
       </c>
-      <c r="C10" s="58">
+      <c r="C10" s="56">
         <v>44886</v>
       </c>
-      <c r="D10" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="44" t="str">
+      <c r="D10" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="42" t="str">
         <f>DATEDIF(B10,C10,"ym")&amp;" Mesês,"&amp;DATEDIF(B10,C10,"y")&amp;" Anos."</f>
         <v>1 Mesês,1 Anos.</v>
       </c>
@@ -2158,10 +2203,10 @@
       <c r="G10" s="16">
         <v>1800</v>
       </c>
-      <c r="H10" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="50">
+      <c r="H10" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I10" s="48">
         <f t="shared" si="0"/>
         <v>23400</v>
       </c>
@@ -2173,35 +2218,35 @@
       <c r="B11" s="17">
         <v>44474</v>
       </c>
-      <c r="C11" s="59">
-        <v>44886</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="45" t="str">
+      <c r="C11" s="57">
+        <v>44683</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="43" t="str">
         <f>DATEDIF(B11,C11,"ym")&amp;" Mesês,"&amp;DATEDIF(B11,C11,"y")&amp;" Anos."</f>
-        <v>1 Mesês,1 Anos.</v>
+        <v>6 Mesês,0 Anos.</v>
       </c>
       <c r="F11" s="18">
         <f>DATEDIF(B11,C11,"m")</f>
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G11" s="19">
         <v>4000</v>
       </c>
-      <c r="H11" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="51">
+      <c r="H11" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I11" s="49">
         <f t="shared" si="0"/>
-        <v>52000</v>
+        <v>24000</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -2211,84 +2256,140 @@
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="39">
+        <v>15</v>
+      </c>
+      <c r="B13" s="37">
         <v>44470</v>
       </c>
-      <c r="C13" s="55">
+      <c r="C13" s="53">
         <v>44939</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="47" t="str">
+        <v>13</v>
+      </c>
+      <c r="E13" s="45" t="str">
         <f>DATEDIF(B13,C13,"ym")&amp;" Mesês,"&amp;DATEDIF(B13,C13,"y")&amp;" Anos."</f>
         <v>3 Mesês,1 Anos.</v>
       </c>
-      <c r="F13" s="40">
+      <c r="F13" s="38">
         <f>DATEDIF(B13,C13,"m")</f>
         <v>15</v>
       </c>
-      <c r="G13" s="27">
+      <c r="G13" s="25">
         <f>I13/F13</f>
         <v>3333.3333333333335</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="48">
+        <v>13</v>
+      </c>
+      <c r="I13" s="46">
         <v>50000</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
+      <c r="A14" s="61"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H15" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="27">
-        <f>SUM(I2:I13)</f>
-        <v>288500</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="65">
+        <v>44249</v>
+      </c>
+      <c r="C15" s="64">
+        <v>45261</v>
+      </c>
+      <c r="D15" s="25">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="45" t="str">
+        <f>DATEDIF(B15,C15,"ym")&amp;" Mesês,"&amp;DATEDIF(B15,C15,"y")&amp;" Anos."</f>
+        <v>9 Mesês,2 Anos.</v>
+      </c>
+      <c r="F15" s="38">
+        <f>DATEDIF(B15,C15,"m")</f>
+        <v>33</v>
+      </c>
+      <c r="G15" s="25">
+        <v>86</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="46">
+        <f>G15*F15+D15</f>
+        <v>12838</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="29">
+        <v>44683</v>
+      </c>
+      <c r="C16" s="62">
+        <v>45261</v>
+      </c>
+      <c r="D16" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="43" t="str">
+        <f>DATEDIF(B16,C16,"ym")&amp;" Mesês,"&amp;DATEDIF(B16,C16,"y")&amp;" Anos."</f>
+        <v>6 Mesês,1 Anos.</v>
+      </c>
+      <c r="F16" s="18">
+        <f>DATEDIF(B16,C16,"m")</f>
+        <v>18</v>
+      </c>
+      <c r="G16" s="63">
+        <v>250</v>
+      </c>
+      <c r="H16" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I16" s="49">
+        <f t="shared" ref="I16" si="1">G16*F16</f>
+        <v>4500</v>
+      </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="25">
+        <f>SUM(I2:I16)</f>
+        <v>277838</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/Formularios/GerenciamentoDeCustos.xlsx
+++ b/Formularios/GerenciamentoDeCustos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Desktop\Github\Gerenciamento-de-projetos\Formularios\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -107,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="39">
     <border>
       <left/>
       <right/>
@@ -453,6 +453,32 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color indexed="64"/>
@@ -597,7 +623,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -650,13 +676,16 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -674,43 +703,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -743,6 +772,32 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pt-BR"/>
+              <a:t>Grafico de Custos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -798,10 +853,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(Plan1!$I$2,Plan1!$I$4:$I$6,Plan1!$I$8:$I$11,Plan1!$I$13:$I$13)</c:f>
+              <c:f>(Plan1!$I$2,Plan1!$I$4,Plan1!$I$5,Plan1!$I$6,Plan1!$I$8,Plan1!$I$9,Plan1!$I$10,Plan1!$I$11,Plan1!$I$13,Plan1!$I$15,Plan1!$I$16)</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>29700</c:v>
                 </c:pt>
@@ -809,10 +864,10 @@
                   <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>52000</c:v>
@@ -829,6 +884,12 @@
                 <c:pt idx="8">
                   <c:v>50000</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>12838</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4500</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -842,11 +903,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="504881184"/>
-        <c:axId val="504881576"/>
+        <c:axId val="417527168"/>
+        <c:axId val="417529912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="504881184"/>
+        <c:axId val="417527168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,15 +949,16 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504881576"/>
+        <c:crossAx val="417529912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="1"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="504881576"/>
+        <c:axId val="417529912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -917,6 +979,32 @@
           </c:spPr>
         </c:majorGridlines>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-BR"/>
+                  <a:t>Valor</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -977,7 +1065,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="504881184"/>
+        <c:crossAx val="417527168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1575,15 +1663,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>63983</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>71024</xdr:rowOff>
+      <xdr:colOff>35408</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>368783</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>31681</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>69782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1907,9 +1995,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1932,7 +2020,7 @@
       <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="59" t="s">
+      <c r="D1" s="62" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -1953,16 +2041,16 @@
       <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="32">
+      <c r="B2" s="35">
         <v>44249</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="36">
         <v>45261</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="34" t="str">
+      <c r="E2" s="37" t="str">
         <f>DATEDIF(B2,C2,"ym")&amp;" Mesês,"&amp;DATEDIF(B2,C2,"y")&amp;" Anos."</f>
         <v>9 Mesês,2 Anos.</v>
       </c>
@@ -1976,7 +2064,7 @@
       <c r="H2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="45">
+      <c r="I2" s="48">
         <f>G2*F2</f>
         <v>29700</v>
       </c>
@@ -1993,19 +2081,19 @@
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="32" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="30">
         <v>44287</v>
       </c>
-      <c r="C4" s="58">
+      <c r="C4" s="61">
         <v>44440</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="40" t="str">
+      <c r="D4" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="43" t="str">
         <f>DATEDIF(B4,C4,"ym")&amp;" Mesês,"&amp;DATEDIF(B4,C4,"y")&amp;" Anos."</f>
         <v>5 Mesês,0 Anos.</v>
       </c>
@@ -2016,76 +2104,76 @@
       <c r="G4" s="15">
         <v>6000</v>
       </c>
-      <c r="H4" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="46">
+      <c r="H4" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="49">
         <f>G4*F4</f>
         <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="8">
         <v>44287</v>
       </c>
-      <c r="C5" s="55">
-        <v>44348</v>
-      </c>
-      <c r="D5" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="41" t="str">
+      <c r="C5" s="58">
+        <v>44440</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="44" t="str">
         <f>DATEDIF(B5,C5,"ym")&amp;" Mesês,"&amp;DATEDIF(B5,C5,"y")&amp;" Anos."</f>
-        <v>2 Mesês,0 Anos.</v>
+        <v>5 Mesês,0 Anos.</v>
       </c>
       <c r="F5" s="4">
         <f>DATEDIF(B5,C5,"m")</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G5" s="16">
         <v>4000</v>
       </c>
-      <c r="H5" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="47">
+      <c r="H5" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="50">
         <f t="shared" ref="I5:I11" si="0">G5*F5</f>
-        <v>8000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="34" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="31">
         <v>44287</v>
       </c>
-      <c r="C6" s="56">
-        <v>44440</v>
+      <c r="C6" s="59">
+        <v>44348</v>
       </c>
       <c r="D6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="42" t="str">
+      <c r="E6" s="45" t="str">
         <f>DATEDIF(B6,C6,"ym")&amp;" Mesês,"&amp;DATEDIF(B6,C6,"y")&amp;" Anos."</f>
-        <v>5 Mesês,0 Anos.</v>
+        <v>2 Mesês,0 Anos.</v>
       </c>
       <c r="F6" s="18">
         <f>DATEDIF(B6,C6,"m")</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G6" s="19">
         <v>4000</v>
       </c>
-      <c r="H6" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="48">
+      <c r="H6" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="51">
         <f t="shared" si="0"/>
-        <v>20000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2106,13 +2194,13 @@
       <c r="B8" s="7">
         <v>44474</v>
       </c>
-      <c r="C8" s="58">
+      <c r="C8" s="61">
         <v>44886</v>
       </c>
-      <c r="D8" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="43" t="str">
+      <c r="D8" s="60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="46" t="str">
         <f>DATEDIF(B8,C8,"ym")&amp;" Mesês,"&amp;DATEDIF(B8,C8,"y")&amp;" Anos."</f>
         <v>1 Mesês,1 Anos.</v>
       </c>
@@ -2123,10 +2211,10 @@
       <c r="G8" s="15">
         <v>4000</v>
       </c>
-      <c r="H8" s="49" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="46">
+      <c r="H8" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="49">
         <f t="shared" si="0"/>
         <v>52000</v>
       </c>
@@ -2138,13 +2226,13 @@
       <c r="B9" s="8">
         <v>44474</v>
       </c>
-      <c r="C9" s="55">
+      <c r="C9" s="58">
         <v>44886</v>
       </c>
-      <c r="D9" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="41" t="str">
+      <c r="D9" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="44" t="str">
         <f>DATEDIF(B9,C9,"ym")&amp;" Mesês,"&amp;DATEDIF(B9,C9,"y")&amp;" Anos."</f>
         <v>1 Mesês,1 Anos.</v>
       </c>
@@ -2155,10 +2243,10 @@
       <c r="G9" s="16">
         <v>1800</v>
       </c>
-      <c r="H9" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="47">
+      <c r="H9" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="50">
         <f t="shared" si="0"/>
         <v>23400</v>
       </c>
@@ -2170,13 +2258,13 @@
       <c r="B10" s="8">
         <v>44474</v>
       </c>
-      <c r="C10" s="55">
+      <c r="C10" s="58">
         <v>44886</v>
       </c>
-      <c r="D10" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="41" t="str">
+      <c r="D10" s="57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="44" t="str">
         <f>DATEDIF(B10,C10,"ym")&amp;" Mesês,"&amp;DATEDIF(B10,C10,"y")&amp;" Anos."</f>
         <v>1 Mesês,1 Anos.</v>
       </c>
@@ -2187,10 +2275,10 @@
       <c r="G10" s="16">
         <v>1800</v>
       </c>
-      <c r="H10" s="50" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="47">
+      <c r="H10" s="53" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="50">
         <f t="shared" si="0"/>
         <v>23400</v>
       </c>
@@ -2202,13 +2290,13 @@
       <c r="B11" s="17">
         <v>44474</v>
       </c>
-      <c r="C11" s="56">
+      <c r="C11" s="59">
         <v>44886</v>
       </c>
       <c r="D11" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="42" t="str">
+      <c r="E11" s="45" t="str">
         <f>DATEDIF(B11,C11,"ym")&amp;" Mesês,"&amp;DATEDIF(B11,C11,"y")&amp;" Anos."</f>
         <v>1 Mesês,1 Anos.</v>
       </c>
@@ -2219,18 +2307,18 @@
       <c r="G11" s="19">
         <v>4000</v>
       </c>
-      <c r="H11" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="48">
+      <c r="H11" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="51">
         <f t="shared" si="0"/>
         <v>52000</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="21"/>
@@ -2242,20 +2330,20 @@
       <c r="A13" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="39">
         <v>44470</v>
       </c>
-      <c r="C13" s="52">
+      <c r="C13" s="55">
         <v>44939</v>
       </c>
       <c r="D13" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="44" t="str">
+      <c r="E13" s="47" t="str">
         <f>DATEDIF(B13,C13,"ym")&amp;" Mesês,"&amp;DATEDIF(B13,C13,"y")&amp;" Anos."</f>
         <v>3 Mesês,1 Anos.</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F13" s="40">
         <f>DATEDIF(B13,C13,"m")</f>
         <v>15</v>
       </c>
@@ -2266,7 +2354,7 @@
       <c r="H13" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="48">
         <v>50000</v>
       </c>
     </row>
@@ -2275,16 +2363,16 @@
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="63">
+      <c r="B15" s="66">
         <v>44249</v>
       </c>
-      <c r="C15" s="64">
+      <c r="C15" s="67">
         <v>45261</v>
       </c>
-      <c r="D15" s="66">
+      <c r="D15" s="69">
         <v>10000</v>
       </c>
-      <c r="E15" s="60" t="str">
+      <c r="E15" s="63" t="str">
         <f>DATEDIF(B15,C15,"ym")&amp;" Mesês,"&amp;DATEDIF(B15,C15,"y")&amp;" Anos."</f>
         <v>9 Mesês,2 Anos.</v>
       </c>
@@ -2295,10 +2383,10 @@
       <c r="G15" s="15">
         <v>86</v>
       </c>
-      <c r="H15" s="68" t="s">
-        <v>14</v>
-      </c>
-      <c r="I15" s="69">
+      <c r="H15" s="71" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="72">
         <f>G15*F15+D15</f>
         <v>12838</v>
       </c>
@@ -2307,16 +2395,16 @@
       <c r="A16" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="62">
+      <c r="B16" s="65">
         <v>44683</v>
       </c>
-      <c r="C16" s="65">
+      <c r="C16" s="68">
         <v>45261</v>
       </c>
-      <c r="D16" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="61" t="str">
+      <c r="D16" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="64" t="str">
         <f>DATEDIF(B16,C16,"ym")&amp;" Mesês,"&amp;DATEDIF(B16,C16,"y")&amp;" Anos."</f>
         <v>6 Mesês,1 Anos.</v>
       </c>
@@ -2327,10 +2415,10 @@
       <c r="G16" s="19">
         <v>250</v>
       </c>
-      <c r="H16" s="67" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="70">
+      <c r="H16" s="70" t="s">
+        <v>14</v>
+      </c>
+      <c r="I16" s="73">
         <f t="shared" ref="I16" si="1">G16*F16</f>
         <v>4500</v>
       </c>
@@ -2350,13 +2438,13 @@
       <c r="A18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="53" t="s">
+      <c r="B18" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="56" t="s">
         <v>14</v>
       </c>
       <c r="E18" s="25" t="s">
@@ -2372,8 +2460,8 @@
         <v>14</v>
       </c>
       <c r="I18" s="27">
-        <f>SUM(I2:I16)</f>
-        <v>305838</v>
+        <f>SUM(I2:I13)</f>
+        <v>288500</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">

--- a/Formularios/GerenciamentoDeCustos.xlsx
+++ b/Formularios/GerenciamentoDeCustos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>Data de Inicio</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Custo de Aquisição</t>
+  </si>
+  <si>
+    <t>11 Dias</t>
   </si>
 </sst>
 </file>
@@ -870,7 +873,7 @@
                   <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>52000</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>23400</c:v>
@@ -903,11 +906,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="417527168"/>
-        <c:axId val="417529912"/>
+        <c:axId val="387311960"/>
+        <c:axId val="387314312"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="417527168"/>
+        <c:axId val="387311960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -949,7 +952,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417529912"/>
+        <c:crossAx val="387314312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -958,7 +961,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="417529912"/>
+        <c:axId val="387314312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1068,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="417527168"/>
+        <c:crossAx val="387311960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1997,7 +2000,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A5" sqref="A5"/>
+      <selection pane="topRight" activeCell="U21" sqref="U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,31 +2195,29 @@
         <v>11</v>
       </c>
       <c r="B8" s="7">
-        <v>44474</v>
+        <v>44946</v>
       </c>
       <c r="C8" s="61">
-        <v>44886</v>
+        <v>44957</v>
       </c>
       <c r="D8" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="46" t="str">
-        <f>DATEDIF(B8,C8,"ym")&amp;" Mesês,"&amp;DATEDIF(B8,C8,"y")&amp;" Anos."</f>
-        <v>1 Mesês,1 Anos.</v>
-      </c>
-      <c r="F8" s="5">
-        <f>DATEDIF(B8,C8,"m")</f>
-        <v>13</v>
+      <c r="E8" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="G8" s="15">
-        <v>4000</v>
+        <v>1980</v>
       </c>
       <c r="H8" s="52" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="49">
-        <f t="shared" si="0"/>
-        <v>52000</v>
+        <f>G8</f>
+        <v>1980</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2461,7 +2462,7 @@
       </c>
       <c r="I18" s="27">
         <f>SUM(I2:I13)</f>
-        <v>288500</v>
+        <v>238480</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">

--- a/Formularios/GerenciamentoDeCustos.xlsx
+++ b/Formularios/GerenciamentoDeCustos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\casa\Desktop\Github\Gerenciamento-de-projetos\Formularios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="19">
   <si>
     <t>Data de Inicio</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>Tempo de contrato</t>
-  </si>
-  <si>
-    <t>Designer Senior</t>
   </si>
   <si>
     <t>Designer Disp</t>
@@ -110,7 +107,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="39">
+  <borders count="38">
     <border>
       <left/>
       <right/>
@@ -462,19 +459,6 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -626,7 +610,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,16 +663,15 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -706,43 +689,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="8" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,41 +839,38 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>(Plan1!$I$2,Plan1!$I$4,Plan1!$I$5,Plan1!$I$6,Plan1!$I$8,Plan1!$I$9,Plan1!$I$10,Plan1!$I$11,Plan1!$I$13,Plan1!$I$15,Plan1!$I$16)</c:f>
+              <c:f>(Plan1!$I$2,Plan1!$I$4,Plan1!$I$5,Plan1!$I$7,Plan1!$I$8,Plan1!$I$9,Plan1!$I$10,Plan1!$I$12,Plan1!$I$14,Plan1!$I$15)</c:f>
               <c:numCache>
                 <c:formatCode>"R$"#,##0.00_);[Red]\("R$"#,##0.00\)</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>29700</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>20000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8000</c:v>
+                  <c:v>1980</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1980</c:v>
+                  <c:v>23400</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>23400</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>23400</c:v>
+                  <c:v>52000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50000</c:v>
+                  <c:v>12838</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>12838</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>4500</c:v>
                 </c:pt>
               </c:numCache>
@@ -906,11 +886,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="387311960"/>
-        <c:axId val="387314312"/>
+        <c:axId val="415558160"/>
+        <c:axId val="415555808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="387311960"/>
+        <c:axId val="415558160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -952,7 +932,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387314312"/>
+        <c:crossAx val="415555808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -961,7 +941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="387314312"/>
+        <c:axId val="415555808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1068,7 +1048,7 @@
             <a:endParaRPr lang="pt-BR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387311960"/>
+        <c:crossAx val="415558160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1673,7 +1653,7 @@
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>69782</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1996,11 +1976,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U21" sqref="U21"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,8 +2003,8 @@
       <c r="C1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="62" t="s">
-        <v>18</v>
+      <c r="D1" s="61" t="s">
+        <v>17</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>2</v>
@@ -2033,27 +2013,27 @@
         <v>2</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H1" s="29"/>
       <c r="I1" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="35">
+        <v>7</v>
+      </c>
+      <c r="B2" s="34">
         <v>44249</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="35">
         <v>45261</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="37" t="str">
+        <v>13</v>
+      </c>
+      <c r="E2" s="36" t="str">
         <f>DATEDIF(B2,C2,"ym")&amp;" Mesês,"&amp;DATEDIF(B2,C2,"y")&amp;" Anos."</f>
         <v>9 Mesês,2 Anos.</v>
       </c>
@@ -2065,9 +2045,9 @@
         <v>900</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="48">
+        <v>13</v>
+      </c>
+      <c r="I2" s="47">
         <f>G2*F2</f>
         <v>29700</v>
       </c>
@@ -2090,13 +2070,13 @@
       <c r="B4" s="30">
         <v>44287</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="60">
         <v>44440</v>
       </c>
-      <c r="D4" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="43" t="str">
+      <c r="D4" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="42" t="str">
         <f>DATEDIF(B4,C4,"ym")&amp;" Mesês,"&amp;DATEDIF(B4,C4,"y")&amp;" Anos."</f>
         <v>5 Mesês,0 Anos.</v>
       </c>
@@ -2105,135 +2085,135 @@
         <v>5</v>
       </c>
       <c r="G4" s="15">
-        <v>6000</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="49">
-        <f>G4*F4</f>
-        <v>30000</v>
+        <v>4000</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="48">
+        <f t="shared" ref="I4:I10" si="0">G4*F4</f>
+        <v>20000</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="31">
         <v>44287</v>
       </c>
       <c r="C5" s="58">
-        <v>44440</v>
-      </c>
-      <c r="D5" s="57" t="s">
-        <v>14</v>
+        <v>44348</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="E5" s="44" t="str">
         <f>DATEDIF(B5,C5,"ym")&amp;" Mesês,"&amp;DATEDIF(B5,C5,"y")&amp;" Anos."</f>
-        <v>5 Mesês,0 Anos.</v>
-      </c>
-      <c r="F5" s="4">
+        <v>2 Mesês,0 Anos.</v>
+      </c>
+      <c r="F5" s="18">
         <f>DATEDIF(B5,C5,"m")</f>
-        <v>5</v>
-      </c>
-      <c r="G5" s="16">
+        <v>2</v>
+      </c>
+      <c r="G5" s="19">
         <v>4000</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I5" s="50">
-        <f t="shared" ref="I5:I11" si="0">G5*F5</f>
-        <v>20000</v>
+        <f t="shared" si="0"/>
+        <v>8000</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="34" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="31">
-        <v>44287</v>
-      </c>
-      <c r="C6" s="59">
-        <v>44348</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="45" t="str">
-        <f>DATEDIF(B6,C6,"ym")&amp;" Mesês,"&amp;DATEDIF(B6,C6,"y")&amp;" Anos."</f>
-        <v>2 Mesês,0 Anos.</v>
-      </c>
-      <c r="F6" s="18">
-        <f>DATEDIF(B6,C6,"m")</f>
-        <v>2</v>
-      </c>
-      <c r="G6" s="19">
-        <v>4000</v>
-      </c>
-      <c r="H6" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="51">
-        <f t="shared" si="0"/>
-        <v>8000</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="7">
+        <v>44946</v>
+      </c>
+      <c r="C7" s="60">
+        <v>44957</v>
+      </c>
+      <c r="D7" s="59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="15">
+        <v>1980</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="48">
+        <f>G7</f>
+        <v>1980</v>
+      </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="7">
-        <v>44946</v>
-      </c>
-      <c r="C8" s="61">
-        <v>44957</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1980</v>
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="8">
+        <v>44474</v>
+      </c>
+      <c r="C8" s="57">
+        <v>44886</v>
+      </c>
+      <c r="D8" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="43" t="str">
+        <f>DATEDIF(B8,C8,"ym")&amp;" Mesês,"&amp;DATEDIF(B8,C8,"y")&amp;" Anos."</f>
+        <v>1 Mesês,1 Anos.</v>
+      </c>
+      <c r="F8" s="4">
+        <f>DATEDIF(B8,C8,"m")</f>
+        <v>13</v>
+      </c>
+      <c r="G8" s="16">
+        <v>1800</v>
       </c>
       <c r="H8" s="52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="49">
-        <f>G8</f>
-        <v>1980</v>
+        <f t="shared" si="0"/>
+        <v>23400</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>9</v>
       </c>
       <c r="B9" s="8">
         <v>44474</v>
       </c>
-      <c r="C9" s="58">
+      <c r="C9" s="57">
         <v>44886</v>
       </c>
-      <c r="D9" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="44" t="str">
+      <c r="D9" s="56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="43" t="str">
         <f>DATEDIF(B9,C9,"ym")&amp;" Mesês,"&amp;DATEDIF(B9,C9,"y")&amp;" Anos."</f>
         <v>1 Mesês,1 Anos.</v>
       </c>
@@ -2244,230 +2224,198 @@
       <c r="G9" s="16">
         <v>1800</v>
       </c>
-      <c r="H9" s="53" t="s">
-        <v>14</v>
-      </c>
-      <c r="I9" s="50">
+      <c r="H9" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="49">
         <f t="shared" si="0"/>
         <v>23400</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="8">
+      <c r="A10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="17">
         <v>44474</v>
       </c>
       <c r="C10" s="58">
         <v>44886</v>
       </c>
-      <c r="D10" s="57" t="s">
-        <v>14</v>
+      <c r="D10" s="29" t="s">
+        <v>13</v>
       </c>
       <c r="E10" s="44" t="str">
         <f>DATEDIF(B10,C10,"ym")&amp;" Mesês,"&amp;DATEDIF(B10,C10,"y")&amp;" Anos."</f>
         <v>1 Mesês,1 Anos.</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="18">
         <f>DATEDIF(B10,C10,"m")</f>
         <v>13</v>
       </c>
-      <c r="G10" s="16">
-        <v>1800</v>
+      <c r="G10" s="19">
+        <v>4000</v>
       </c>
       <c r="H10" s="53" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I10" s="50">
         <f t="shared" si="0"/>
-        <v>23400</v>
+        <v>52000</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="17">
-        <v>44474</v>
-      </c>
-      <c r="C11" s="59">
-        <v>44886</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="45" t="str">
-        <f>DATEDIF(B11,C11,"ym")&amp;" Mesês,"&amp;DATEDIF(B11,C11,"y")&amp;" Anos."</f>
-        <v>1 Mesês,1 Anos.</v>
-      </c>
-      <c r="F11" s="18">
-        <f>DATEDIF(B11,C11,"m")</f>
-        <v>13</v>
-      </c>
-      <c r="G11" s="19">
-        <v>4000</v>
-      </c>
-      <c r="H11" s="54" t="s">
-        <v>14</v>
-      </c>
-      <c r="I11" s="51">
-        <f t="shared" si="0"/>
-        <v>52000</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="22"/>
+      <c r="A12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="38">
+        <v>44470</v>
+      </c>
+      <c r="C12" s="54">
+        <v>44939</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="46" t="str">
+        <f>DATEDIF(B12,C12,"ym")&amp;" Mesês,"&amp;DATEDIF(B12,C12,"y")&amp;" Anos."</f>
+        <v>3 Mesês,1 Anos.</v>
+      </c>
+      <c r="F12" s="39">
+        <f>DATEDIF(B12,C12,"m")</f>
+        <v>15</v>
+      </c>
+      <c r="G12" s="27">
+        <f>I12/F12</f>
+        <v>3333.3333333333335</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="47">
+        <v>50000</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="39">
-        <v>44470</v>
-      </c>
-      <c r="C13" s="55">
-        <v>44939</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="47" t="str">
-        <f>DATEDIF(B13,C13,"ym")&amp;" Mesês,"&amp;DATEDIF(B13,C13,"y")&amp;" Anos."</f>
-        <v>3 Mesês,1 Anos.</v>
-      </c>
-      <c r="F13" s="40">
-        <f>DATEDIF(B13,C13,"m")</f>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="27">
-        <f>I13/F13</f>
-        <v>3333.3333333333335</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="I13" s="48">
-        <v>50000</v>
+      <c r="B14" s="65">
+        <v>44249</v>
+      </c>
+      <c r="C14" s="66">
+        <v>45261</v>
+      </c>
+      <c r="D14" s="68">
+        <v>10000</v>
+      </c>
+      <c r="E14" s="62" t="str">
+        <f>DATEDIF(B14,C14,"ym")&amp;" Mesês,"&amp;DATEDIF(B14,C14,"y")&amp;" Anos."</f>
+        <v>9 Mesês,2 Anos.</v>
+      </c>
+      <c r="F14" s="14">
+        <f>DATEDIF(B14,C14,"m")</f>
+        <v>33</v>
+      </c>
+      <c r="G14" s="15">
+        <v>86</v>
+      </c>
+      <c r="H14" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="I14" s="71">
+        <f>G14*F14+D14</f>
+        <v>12838</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="66">
-        <v>44249</v>
+      <c r="B15" s="64">
+        <v>44683</v>
       </c>
       <c r="C15" s="67">
         <v>45261</v>
       </c>
-      <c r="D15" s="69">
-        <v>10000</v>
+      <c r="D15" s="69" t="s">
+        <v>13</v>
       </c>
       <c r="E15" s="63" t="str">
         <f>DATEDIF(B15,C15,"ym")&amp;" Mesês,"&amp;DATEDIF(B15,C15,"y")&amp;" Anos."</f>
-        <v>9 Mesês,2 Anos.</v>
-      </c>
-      <c r="F15" s="14">
+        <v>6 Mesês,1 Anos.</v>
+      </c>
+      <c r="F15" s="18">
         <f>DATEDIF(B15,C15,"m")</f>
-        <v>33</v>
-      </c>
-      <c r="G15" s="15">
-        <v>86</v>
-      </c>
-      <c r="H15" s="71" t="s">
-        <v>14</v>
+        <v>18</v>
+      </c>
+      <c r="G15" s="19">
+        <v>250</v>
+      </c>
+      <c r="H15" s="69" t="s">
+        <v>13</v>
       </c>
       <c r="I15" s="72">
-        <f>G15*F15+D15</f>
-        <v>12838</v>
+        <f t="shared" ref="I15" si="1">G15*F15</f>
+        <v>4500</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="65">
-        <v>44683</v>
-      </c>
-      <c r="C16" s="68">
-        <v>45261</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="64" t="str">
-        <f>DATEDIF(B16,C16,"ym")&amp;" Mesês,"&amp;DATEDIF(B16,C16,"y")&amp;" Anos."</f>
-        <v>6 Mesês,1 Anos.</v>
-      </c>
-      <c r="F16" s="18">
-        <f>DATEDIF(B16,C16,"m")</f>
-        <v>18</v>
-      </c>
-      <c r="G16" s="19">
-        <v>250</v>
-      </c>
-      <c r="H16" s="70" t="s">
-        <v>14</v>
-      </c>
-      <c r="I16" s="73">
-        <f t="shared" ref="I16" si="1">G16*F16</f>
-        <v>4500</v>
-      </c>
+      <c r="A16" s="2"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="23"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="A17" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="H17" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" s="27">
+        <f>SUM(I2:I12)</f>
+        <v>208480</v>
+      </c>
     </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="F18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="H18" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="27">
-        <f>SUM(I2:I13)</f>
-        <v>238480</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.51181102362204722" right="0.51181102362204722" top="0.78740157480314965" bottom="0.78740157480314965" header="0.31496062992125984" footer="0.31496062992125984"/>
